--- a/data/sentiment analysis and democracy index.xlsx
+++ b/data/sentiment analysis and democracy index.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Downloads\bimbingan\catatanbimbingan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEEEE450-D557-425B-AD27-8AA30EA4814C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E01EB1-75E7-4AD7-974D-4EF5B4A66C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{30D3368C-9FB9-4F84-B50F-82192C971721}"/>
   </bookViews>
@@ -34,18 +34,26 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Democracy Index</t>
+    <t>Sentiment Analysis</t>
   </si>
   <si>
-    <t>Sentiment Analysis</t>
+    <t>Indeks Demokrasi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -73,8 +81,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -113,11 +122,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -127,11 +136,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-ID"/>
-              <a:t>Democracy</a:t>
+              <a:t>Tingkat Demokrasi berdasarkan Indeks Demokrasi dan </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-ID" baseline="0"/>
-              <a:t> index and sentiment analysis</a:t>
+              <a:rPr lang="en-ID" i="1"/>
+              <a:t>Sentiment Analysis</a:t>
             </a:r>
             <a:endParaRPr lang="en-ID"/>
           </a:p>
@@ -150,11 +159,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -174,6 +183,161 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Indeks Demokrasi</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inBase"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$H$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>71</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-46F0-4501-B32A-E3A7588030DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1263833983"/>
+        <c:axId val="1263834399"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
@@ -188,30 +352,25 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="narHorz">
-              <a:fgClr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
                 <a:schemeClr val="accent2"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="accent2">
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
                   <a:lumMod val="20000"/>
                   <a:lumOff val="80000"/>
                 </a:schemeClr>
-              </a:bgClr>
-            </a:pattFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:innerShdw blurRad="114300">
-                <a:schemeClr val="accent2"/>
-              </a:innerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
+              </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -239,6 +398,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="t"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -251,13 +411,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -302,32 +463,33 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>68</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>71</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>72</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>73</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>73</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>73</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>74</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-219E-4DE0-8F69-A62090027CCB}"/>
+              <c16:uniqueId val="{00000001-46F0-4501-B32A-E3A7588030DD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -339,202 +501,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:axId val="637232399"/>
-        <c:axId val="637228655"/>
-      </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Democracy Index</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-1.0185067526415994E-16"/>
-                  <c:y val="-9.2592592592592587E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-219E-4DE0-8F69-A62090027CCB}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$1:$H$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2022</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$H$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>74</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-219E-4DE0-8F69-A62090027CCB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="637232399"/>
-        <c:axId val="637228655"/>
+        <c:axId val="1263833983"/>
+        <c:axId val="1263834399"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="637232399"/>
+        <c:axId val="1263833983"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -546,11 +519,11 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -577,7 +550,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="637228655"/>
+        <c:crossAx val="1263834399"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -585,25 +558,12 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="637228655"/>
+        <c:axId val="1263834399"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -635,12 +595,40 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="637232399"/>
+        <c:crossAx val="1263833983"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
-        <a:noFill/>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="5000"/>
+                <a:lumOff val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="74000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="45000"/>
+                <a:lumOff val="55000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="83000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="45000"/>
+                <a:lumOff val="55000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="30000"/>
+                <a:lumOff val="70000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+        </a:gradFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -690,16 +678,53 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:gradFill>
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="74000">
+          <a:schemeClr val="accent4"/>
+        </a:gs>
+        <a:gs pos="83000">
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:srgbClr val="FFFF00"/>
+        </a:gs>
+      </a:gsLst>
+      <a:lin ang="5400000" scaled="1"/>
+    </a:gradFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="accent1">
+              <a:lumMod val="5000"/>
+              <a:lumOff val="95000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="74000">
+            <a:schemeClr val="accent4"/>
+          </a:gs>
+          <a:gs pos="83000">
+            <a:schemeClr val="accent4">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:srgbClr val="FFFF00"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="1"/>
+      </a:gradFill>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -763,7 +788,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="323">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -774,7 +799,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -787,11 +812,11 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -804,7 +829,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -820,7 +845,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -864,70 +889,32 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="narHorz">
-        <a:fgClr>
-          <a:schemeClr val="phClr"/>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:bgClr>
-      </a:pattFill>
-      <a:effectLst>
-        <a:innerShdw blurRad="114300">
-          <a:schemeClr val="phClr"/>
-        </a:innerShdw>
-      </a:effectLst>
-    </cs:spPr>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="narHorz">
-        <a:fgClr>
-          <a:schemeClr val="phClr"/>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:bgClr>
-      </a:pattFill>
-      <a:effectLst>
-        <a:innerShdw blurRad="114300">
-          <a:schemeClr val="phClr"/>
-        </a:innerShdw>
-      </a:effectLst>
-    </cs:spPr>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="28575" cap="rnd">
@@ -939,29 +926,33 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -983,13 +974,15 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1008,14 +1001,13 @@
           <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1024,10 +1016,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -1043,14 +1035,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1062,24 +1054,31 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMajor>
@@ -1088,16 +1087,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -1106,14 +1106,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1125,16 +1125,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -1155,7 +1156,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -1163,7 +1164,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -1183,10 +1184,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -1203,11 +1204,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1216,13 +1217,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1252,8 +1254,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1276,8 +1278,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1287,22 +1295,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:colOff>119062</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>423862</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E531FF8-5FC2-48EF-BCFD-14507D9BB251}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C573485B-A1E3-E9A7-9A8B-EC163E180D62}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1622,8 +1630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC5B13A2-29C4-42D5-BA86-DFDA273535D2}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1656,7 +1664,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>67</v>
@@ -1668,40 +1676,41 @@
         <v>66</v>
       </c>
       <c r="E2">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F2">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
+      <c r="A3" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C3">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D3">
+        <v>65</v>
+      </c>
+      <c r="E3">
         <v>72</v>
       </c>
-      <c r="E3">
-        <v>73</v>
-      </c>
       <c r="F3">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G3">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H3">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>